--- a/testFiles/Excel.xlsx
+++ b/testFiles/Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\NodeJS\excel-to-word\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andersen/Dev/NodeJS/excel-to-word-web/testFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A343A529-7CB1-4974-80D2-A9AF76E6A29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE86DC2-AF4C-7041-AEF7-D48B1CAA8982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -137,7 +137,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -418,95 +417,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:E9"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.796875" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" imeMode="off" allowBlank="1" promptTitle="性別" prompt="請選擇性別" sqref="E5:E7" xr:uid="{BD4B0CBB-B475-4844-BD2C-A4446E38C3DC}">
+    <dataValidation type="list" imeMode="off" allowBlank="1" promptTitle="性別" prompt="請選擇性別" sqref="E2:E4" xr:uid="{BD4B0CBB-B475-4844-BD2C-A4446E38C3DC}">
       <formula1>"男生,女生"</formula1>
     </dataValidation>
   </dataValidations>
